--- a/medicine/Enfance/L._T._Meade/L._T._Meade.xlsx
+++ b/medicine/Enfance/L._T._Meade/L._T._Meade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L. T. Meade, nom de plume de Elizabeth Thomasina Meade, née en 1844 à Bandon dans le Comté de Cork dans la province de Munster en Irlance et morte en 1914, est une femme de lettres irlandaise, auteure prolifique de roman pour la jeunesse et de roman policier.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur prolifique de romans principalement pour jeunes filles, « elle s'est aussi consacré au genre policier dont elle devint une des premières grandes dames »[1]. Elle écrit plusieurs romans et nouvelles avec Clifford Halifax, Robert Eustace (en) et Robert Kennaway Douglas (en).
-Pour Marc Madouraud, collaborateur du Dictionnaire des littératures policières : « À vrai dire, Meade ne force pas tant l'intérêt par la qualité de son œuvre que par son importance historique et sa propension à imaginer une série de meurtres tous plus ingénieux les uns que les autres. Elle fut d'ailleurs la première à avoir composé une anthologie dédiée aux crimes impossibles, en 1898 »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur prolifique de romans principalement pour jeunes filles, « elle s'est aussi consacré au genre policier dont elle devint une des premières grandes dames ». Elle écrit plusieurs romans et nouvelles avec Clifford Halifax, Robert Eustace (en) et Robert Kennaway Douglas (en).
+Pour Marc Madouraud, collaborateur du Dictionnaire des littératures policières : « À vrai dire, Meade ne force pas tant l'intérêt par la qualité de son œuvre que par son importance historique et sa propension à imaginer une série de meurtres tous plus ingénieux les uns que les autres. Elle fut d'ailleurs la première à avoir composé une anthologie dédiée aux crimes impossibles, en 1898 ».
 Traduite en français entre 1885 et 1922 (pour quelques romans pour enfants et nouvelles policières), elle est actuellement peu connue en France. On doit signaler un recueil traduit par H. J. Magog, L'Oeil dans les ténèbres (Tallandier, 1911, traduction partielle de Stories from the Diary of a Doctor, 1894).
 </t>
         </is>
@@ -546,8 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans de littérature d'enfance et de jeunesse
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 Scamp and I: A Story/Study of City Byways (1872)
 Lettie's Last Home (1876)
 David’s Little Lad (1877)
@@ -695,8 +718,47 @@
 Hollyhock: A Spirit of Mischief (1916)
 Better Than Riches (1917)
 Cassie, Little Mary (1919)
-Romans policiers
-Romans coécrits avec Clifford Halifax
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romans coécrits avec Clifford Halifax
 This Troublesome World (1893)
 Dr. Rumsey's Patient: A Very Strange Story (1896)
 Where the Shoe Pinches (1900)
@@ -764,7 +826,47 @@
 Her Happy Face (1914)
 The Maid Indomitable (1916)
 The Detections of Miss [Florence] Cusack (1998)
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 A Knight of Today (1877)
 Bel Marjory: A Tale (1878)
 Miss Toosey's Mission (1878)
@@ -861,23 +963,133 @@
 The Pearl: A Complete Story
 A Botanical Ladder for the Young
 The Grass-Green Carpet
-Recueils de nouvelles
-Hermie's Rosebuds and Other Stories (1883)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hermie's Rosebuds and Other Stories (1883)
 The Ponsonby Diamonds: Stories from the Diary of a Doctor (1894), coécrit avec Clifford Halifax
 Stories from the Diary of a Doctor, Second Series (1896), coécrit avec Clifford Halifax Publié en français sous le titre L'Œil dans les ténèbres, Paris, Librairie Jules Tallandier, coll. « Romans mystérieux » (1911)
 Stories from the Diary of a Doctor, Third Series (1901)
 Stories from the Old, Old Bible (1903)
 A Lovely Fiend/Friend and Other Stories (1908)
-The Least of These and Other Stories (1910)
-Nouvelles
-Série Old-Fashioned Girls
-Evelina (1888)
+The Least of These and Other Stories (1910)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Old-Fashioned Girls</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Evelina (1888)
 Cecilia (1889)
 Olivia and Sophia Primrose (1889)
 Lizzy and the Touchy Lady (1889)
-Lady Juliana Douglas (1890)
-Série Doctor Halifax, coécrite avec Clifford Halifax
-My First Patient (1893) Publié en français sous le titre Ma première cliente, dans Roman et Vie (1908)
+Lady Juliana Douglas (1890)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Doctor Halifax, coécrite avec Clifford Halifax</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>My First Patient (1893) Publié en français sous le titre Ma première cliente, dans Roman et Vie (1908)
 My Hypnotic Patient (1893)
 Very Far West (1893)
 The Heir of Chartelpool (1893)
@@ -900,23 +1112,137 @@
 The Strange Case of Captain Gascoigne (1895)
 With the Eternal Fires (1895)
 The Small House on Steven’s Heath (1895)
-To Every One His Own Fear (1895)
-Série Paul Gilchrist, coécrite avec Clifford Halifax
-The Snake's Eye (1896)
+To Every One His Own Fear (1895)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Paul Gilchrist, coécrite avec Clifford Halifax</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Snake's Eye (1896)
 Ought He To Marry Her? (1896)
 Lady Tregenna (1896)
 The Sleeping Sickness (1896)
 At the Steps of the Altar (1896)
 Panelled Bedroom (1896)
 A Race with the Sun (1897)
-The Man Who Smiled (1897)
-Série John Bell, coécrite avec Robert Eustace
-The Warder of the Door (1897)
+The Man Who Smiled (1897)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série John Bell, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Warder of the Door (1897)
 The Mystery of the Felwyn Tunnel (1897)
 The Chamber of Terror (1897)
-The Mystery of the Circular Chamber (1897)
-Série Norman Head, coécrite avec Robert Eustace
-At the Edge of the Crater (1898)
+The Mystery of the Circular Chamber (1897)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Norman Head, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>At the Edge of the Crater (1898)
 The Winged Assassin (1898)
 The Swing of the Pendulum (1898)
 The Luck of Pitsey Hall (1898)
@@ -925,42 +1251,308 @@
 The Iron Circlet (1898)
 The Mystery of the Strong Room (1898)
 The Bloodhound (1898)
-The Doom (1898)
-Série George Conway, coécrite avec Robert Eustace
-The Jeweled Cobra (1898)
+The Doom (1898)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série George Conway, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Jeweled Cobra (1898)
 The Cypher with the Human Key (1899)
 The Rice-Paper Chart (1899)
 In the Jaw of the Dog (1899)
 The Yellow Flag (1899)
-The Sacred Chank (1899)
-Série The Sanctuary Club, coécrite avec Robert Eustace
-The Death Chair (1899)
+The Sacred Chank (1899)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série The Sanctuary Club, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Death Chair (1899)
 A Visible Sound (1899)
 The Diana Sapphire (1899)
 East of North (1899)
 A Handful of Ashes (1899)
-The Secret of the Prison House (1899)
-Série Florence Cusack, coécrite avec Robert Eustace
-Mr. Bowey's Unexpected Will (1899)
+The Secret of the Prison House (1899)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Florence Cusack, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mr. Bowey's Unexpected Will (1899)
 The Arrest of Captain Vandaleur (1899)
 A Terrible Railway Ride: The Story of the Man with the False Nose (1900)
-The Outside Ledge (1900)
-Série Francesca Delacourt, coécrite avec Robert Eustace
-Mademoiselle Delacourt (1901)
+The Outside Ledge (1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Francesca Delacourt, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mademoiselle Delacourt (1901)
 A Little Smoke (1901)
 The Tiger’s Claw (1901)
 A Conjuring Trick (1901)
 A Gallop with the Storm (1901)
-The Lost Square (1901)
-Série Dr. Lonsdale, coécrite avec Robert Eustace
-Mrs. Reid's Terror (1901)
-The Great Pink Pearl (1901)
-Série Diana Marburg, coécrite avec Robert Eustace
-The Dead Head (1902)
+The Lost Square (1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Dr. Lonsdale, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mrs. Reid's Terror (1901)
+The Great Pink Pearl (1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Diana Marburg, coécrite avec Robert Eustace</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Dead Head (1902)
 Finger Tips (1902)
-Sir Penn Carlyll's Engagement (1902)
-Autres nouvelles
-The Tambourine Girl (1887)
+Sir Penn Carlyll's Engagement (1902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>L._T._Meade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L._T._Meade</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The Tambourine Girl (1887)
 The Lady in the Forest (1888)
 The Yellow Dragon Vases (1891)
 A Young Mutineer (1892)
